--- a/personalStats.xlsx
+++ b/personalStats.xlsx
@@ -871,8 +871,868 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="3" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" customWidth="1"/>
+    <col min="10" max="18" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4.8495370370370368E-3</v>
+      </c>
+      <c r="D5" s="15">
+        <f t="shared" ref="D5:D29" si="0">E5-C5</f>
+        <v>4.6296296296296363E-4</v>
+      </c>
+      <c r="E5" s="16">
+        <v>5.3125000000000004E-3</v>
+      </c>
+      <c r="F5" s="21">
+        <v>5.3125000000000004E-3</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" ref="G5:G29" si="1">E5-F5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.9861111111111113E-3</v>
+      </c>
+      <c r="D6" s="15">
+        <f t="shared" si="0"/>
+        <v>1.8865740740740744E-3</v>
+      </c>
+      <c r="E6" s="16">
+        <v>4.8726851851851856E-3</v>
+      </c>
+      <c r="F6" s="21">
+        <v>4.2824074074074075E-3</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="1"/>
+        <v>5.9027777777777811E-4</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6.3888888888888884E-3</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" si="0"/>
+        <v>2.3379629629629636E-3</v>
+      </c>
+      <c r="E7" s="16">
+        <v>8.726851851851852E-3</v>
+      </c>
+      <c r="F7" s="22">
+        <v>4.386574074074074E-3</v>
+      </c>
+      <c r="G7" s="21">
+        <f t="shared" si="1"/>
+        <v>4.340277777777778E-3</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9.1435185185185178E-3</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" si="0"/>
+        <v>1.2592592592592594E-2</v>
+      </c>
+      <c r="E8" s="16">
+        <v>2.1736111111111112E-2</v>
+      </c>
+      <c r="F8" s="22">
+        <v>1.2777777777777777E-2</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" si="1"/>
+        <v>8.9583333333333355E-3</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9.5833333333333343E-3</v>
+      </c>
+      <c r="D9" s="15">
+        <f t="shared" si="0"/>
+        <v>2.3495370370370371E-3</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1.1932870370370371E-2</v>
+      </c>
+      <c r="F9" s="22">
+        <v>7.0717592592592594E-3</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" si="1"/>
+        <v>4.8611111111111121E-3</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8.8657407407407417E-3</v>
+      </c>
+      <c r="D10" s="15">
+        <f t="shared" si="0"/>
+        <v>1.2847222222222218E-3</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1.0150462962962964E-2</v>
+      </c>
+      <c r="F10" s="22">
+        <v>4.2592592592592595E-3</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" si="1"/>
+        <v>5.8912037037037041E-3</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="2">
+        <v>9.8726851851851857E-3</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="0"/>
+        <v>1.0810185185185187E-2</v>
+      </c>
+      <c r="E11" s="16">
+        <v>2.0682870370370372E-2</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1.2199074074074072E-2</v>
+      </c>
+      <c r="G11" s="22">
+        <f t="shared" si="1"/>
+        <v>8.4837962962963E-3</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5.3819444444444453E-3</v>
+      </c>
+      <c r="D12" s="15">
+        <f t="shared" si="0"/>
+        <v>1.128472222222222E-2</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F12" s="22">
+        <v>9.2013888888888892E-3</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" si="1"/>
+        <v>7.4652777777777773E-3</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5.3240740740740748E-3</v>
+      </c>
+      <c r="D13" s="15">
+        <f t="shared" si="0"/>
+        <v>6.2962962962962964E-3</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1.1620370370370371E-2</v>
+      </c>
+      <c r="F13" s="22">
+        <v>8.0902777777777778E-3</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" si="1"/>
+        <v>3.5300925925925934E-3</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5.3240740740740748E-3</v>
+      </c>
+      <c r="D14" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5844907407407408E-2</v>
+      </c>
+      <c r="E14" s="16">
+        <v>2.1168981481481483E-2</v>
+      </c>
+      <c r="F14" s="22">
+        <v>1.6041666666666666E-2</v>
+      </c>
+      <c r="G14" s="22">
+        <f t="shared" si="1"/>
+        <v>5.1273148148148172E-3</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.503472222222222E-2</v>
+      </c>
+      <c r="D15" s="15">
+        <f t="shared" si="0"/>
+        <v>9.3518518518518542E-3</v>
+      </c>
+      <c r="E15" s="16">
+        <v>2.4386574074074074E-2</v>
+      </c>
+      <c r="F15" s="22">
+        <v>1.5219907407407409E-2</v>
+      </c>
+      <c r="G15" s="22">
+        <f t="shared" si="1"/>
+        <v>9.166666666666665E-3</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.357638888888889E-2</v>
+      </c>
+      <c r="D16" s="15">
+        <f t="shared" si="0"/>
+        <v>9.3865740740740767E-3</v>
+      </c>
+      <c r="E16" s="16">
+        <v>2.2962962962962966E-2</v>
+      </c>
+      <c r="F16" s="22">
+        <v>1.5520833333333333E-2</v>
+      </c>
+      <c r="G16" s="22">
+        <f t="shared" si="1"/>
+        <v>7.4421296296296336E-3</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="2">
+        <v>7.083333333333333E-3</v>
+      </c>
+      <c r="D17" s="15">
+        <f t="shared" si="0"/>
+        <v>2.8368055555555553E-2</v>
+      </c>
+      <c r="E17" s="16">
+        <v>3.5451388888888886E-2</v>
+      </c>
+      <c r="F17" s="22">
+        <v>2.3668981481481485E-2</v>
+      </c>
+      <c r="G17" s="22">
+        <f t="shared" si="1"/>
+        <v>1.1782407407407401E-2</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.2418981481481482E-2</v>
+      </c>
+      <c r="D18" s="15">
+        <f t="shared" si="0"/>
+        <v>1.0636574074074073E-2</v>
+      </c>
+      <c r="E18" s="16">
+        <v>2.3055555555555555E-2</v>
+      </c>
+      <c r="F18" s="22">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" si="1"/>
+        <v>2.9166666666666646E-3</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.1354166666666667E-2</v>
+      </c>
+      <c r="D19" s="15">
+        <f t="shared" si="0"/>
+        <v>3.2638888888888891E-3</v>
+      </c>
+      <c r="E19" s="16">
+        <v>1.4618055555555556E-2</v>
+      </c>
+      <c r="F19" s="22">
+        <v>9.5023148148148159E-3</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" si="1"/>
+        <v>5.1157407407407401E-3</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.7951388888888888E-2</v>
+      </c>
+      <c r="D20" s="15">
+        <f t="shared" si="0"/>
+        <v>1.3599537037037032E-2</v>
+      </c>
+      <c r="E20" s="16">
+        <v>3.155092592592592E-2</v>
+      </c>
+      <c r="F20" s="22">
+        <v>2.0370370370370369E-2</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="1"/>
+        <v>1.1180555555555551E-2</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4.0682870370370376E-2</v>
+      </c>
+      <c r="D21" s="15">
+        <f t="shared" si="0"/>
+        <v>3.0787037037037016E-3</v>
+      </c>
+      <c r="E21" s="16">
+        <v>4.3761574074074078E-2</v>
+      </c>
+      <c r="F21" s="22">
+        <v>1.269675925925926E-2</v>
+      </c>
+      <c r="G21" s="22">
+        <f t="shared" si="1"/>
+        <v>3.1064814814814816E-2</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="2">
+        <v>9.7337962962962977E-3</v>
+      </c>
+      <c r="D22" s="15">
+        <f t="shared" si="0"/>
+        <v>9.6296296296296286E-3</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1.9363425925925926E-2</v>
+      </c>
+      <c r="F22" s="22">
+        <v>1.4247685185185184E-2</v>
+      </c>
+      <c r="G22" s="22">
+        <f t="shared" si="1"/>
+        <v>5.1157407407407419E-3</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2.1886574074074072E-2</v>
+      </c>
+      <c r="D23" s="15">
+        <f t="shared" si="0"/>
+        <v>3.1817129629629626E-2</v>
+      </c>
+      <c r="E23" s="16">
+        <v>5.3703703703703698E-2</v>
+      </c>
+      <c r="F23" s="22">
+        <v>3.9039351851851853E-2</v>
+      </c>
+      <c r="G23" s="22">
+        <f t="shared" si="1"/>
+        <v>1.4664351851851845E-2</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="2">
+        <v>8.9409722222222224E-2</v>
+      </c>
+      <c r="D24" s="15">
+        <f t="shared" si="0"/>
+        <v>3.0474537037037036E-2</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0.11988425925925926</v>
+      </c>
+      <c r="F24" s="22">
+        <v>8.2997685185185188E-2</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" si="1"/>
+        <v>3.6886574074074072E-2</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2.6516203703703698E-2</v>
+      </c>
+      <c r="D25" s="15">
+        <f t="shared" si="0"/>
+        <v>7.1412037037037086E-3</v>
+      </c>
+      <c r="E25" s="16">
+        <v>3.3657407407407407E-2</v>
+      </c>
+      <c r="F25" s="22">
+        <v>1.298611111111111E-2</v>
+      </c>
+      <c r="G25" s="22">
+        <f t="shared" si="1"/>
+        <v>2.0671296296296299E-2</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="2">
+        <v>8.6689814814814806E-3</v>
+      </c>
+      <c r="D26" s="15">
+        <f t="shared" ref="D26" si="2">E26-C26</f>
+        <v>1.5821759259259258E-2</v>
+      </c>
+      <c r="E26" s="16">
+        <v>2.449074074074074E-2</v>
+      </c>
+      <c r="F26" s="22">
+        <v>1.9456018518518518E-2</v>
+      </c>
+      <c r="G26" s="22">
+        <f t="shared" ref="G26" si="3">E26-F26</f>
+        <v>5.0347222222222217E-3</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1.4745370370370372E-2</v>
+      </c>
+      <c r="D27" s="15">
+        <f t="shared" si="0"/>
+        <v>2.7187500000000003E-2</v>
+      </c>
+      <c r="E27" s="16">
+        <v>4.1932870370370377E-2</v>
+      </c>
+      <c r="F27" s="22">
+        <v>4.1932870370370377E-2</v>
+      </c>
+      <c r="G27" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.4201388888888888E-2</v>
+      </c>
+      <c r="D28" s="15">
+        <f t="shared" si="0"/>
+        <v>9.7800925925925902E-3</v>
+      </c>
+      <c r="E28" s="16">
+        <v>2.3981481481481479E-2</v>
+      </c>
+      <c r="F28" s="22">
+        <v>2.3981481481481479E-2</v>
+      </c>
+      <c r="G28" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1.3530092592592594E-2</v>
+      </c>
+      <c r="D29" s="15">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222446E-5</v>
+      </c>
+      <c r="E29" s="16">
+        <v>1.3564814814814816E-2</v>
+      </c>
+      <c r="F29" s="22">
+        <v>9.3402777777777772E-3</v>
+      </c>
+      <c r="G29" s="22">
+        <f t="shared" si="1"/>
+        <v>4.2245370370370388E-3</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="24"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E36" s="25"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E37" s="25"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E38" s="25"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E39" s="25"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E40" s="25"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E41" s="25"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E42" s="25"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E43" s="26"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="25"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I52" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,483 +1813,483 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2">
-        <v>4.8495370370370368E-3</v>
+        <v>1.6435185185185183E-3</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" ref="D5:D29" si="0">E5-C5</f>
-        <v>4.6296296296296363E-4</v>
+        <v>1.921296296296297E-3</v>
       </c>
       <c r="E5" s="16">
-        <v>5.3125000000000004E-3</v>
+        <v>3.5648148148148154E-3</v>
       </c>
       <c r="F5" s="21">
-        <v>5.3125000000000004E-3</v>
+        <v>2.7546296296296294E-3</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" ref="G5:G29" si="1">E5-F5</f>
-        <v>0</v>
+        <v>8.1018518518518592E-4</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2">
-        <v>2.9861111111111113E-3</v>
+        <v>6.782407407407408E-3</v>
       </c>
       <c r="D6" s="15">
         <f t="shared" si="0"/>
-        <v>1.8865740740740744E-3</v>
+        <v>5.8449074074074072E-3</v>
       </c>
       <c r="E6" s="16">
-        <v>4.8726851851851856E-3</v>
+        <v>1.2627314814814815E-2</v>
       </c>
       <c r="F6" s="21">
-        <v>4.2824074074074075E-3</v>
+        <v>9.4444444444444445E-3</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="1"/>
-        <v>5.9027777777777811E-4</v>
+        <v>3.1828703703703706E-3</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2">
-        <v>6.3888888888888884E-3</v>
+        <v>1.5381944444444443E-2</v>
       </c>
       <c r="D7" s="15">
         <f t="shared" si="0"/>
-        <v>2.3379629629629636E-3</v>
+        <v>4.9189814814814842E-3</v>
       </c>
       <c r="E7" s="16">
-        <v>8.726851851851852E-3</v>
+        <v>2.0300925925925927E-2</v>
       </c>
       <c r="F7" s="22">
-        <v>4.386574074074074E-3</v>
+        <v>1.0902777777777777E-2</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="1"/>
-        <v>4.340277777777778E-3</v>
+        <v>9.3981481481481503E-3</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
-        <v>9.1435185185185178E-3</v>
+        <v>3.37962962962963E-3</v>
       </c>
       <c r="D8" s="15">
         <f t="shared" si="0"/>
-        <v>1.2592592592592594E-2</v>
+        <v>1.9074074074074077E-2</v>
       </c>
       <c r="E8" s="16">
-        <v>2.1736111111111112E-2</v>
+        <v>2.2453703703703708E-2</v>
       </c>
       <c r="F8" s="22">
-        <v>1.2777777777777777E-2</v>
+        <v>5.0462962962962961E-3</v>
       </c>
       <c r="G8" s="21">
         <f t="shared" si="1"/>
-        <v>8.9583333333333355E-3</v>
+        <v>1.7407407407407413E-2</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2">
-        <v>9.5833333333333343E-3</v>
+        <v>1.9201388888888889E-2</v>
       </c>
       <c r="D9" s="15">
         <f t="shared" si="0"/>
-        <v>2.3495370370370371E-3</v>
+        <v>9.826388888888888E-3</v>
       </c>
       <c r="E9" s="16">
-        <v>1.1932870370370371E-2</v>
+        <v>2.9027777777777777E-2</v>
       </c>
       <c r="F9" s="22">
-        <v>7.0717592592592594E-3</v>
+        <v>1.2395833333333335E-2</v>
       </c>
       <c r="G9" s="22">
         <f t="shared" si="1"/>
-        <v>4.8611111111111121E-3</v>
+        <v>1.6631944444444442E-2</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2">
-        <v>8.8657407407407417E-3</v>
+        <v>6.7245370370370367E-3</v>
       </c>
       <c r="D10" s="15">
         <f t="shared" si="0"/>
-        <v>1.2847222222222218E-3</v>
+        <v>7.1180555555555572E-3</v>
       </c>
       <c r="E10" s="16">
-        <v>1.0150462962962964E-2</v>
+        <v>1.3842592592592594E-2</v>
       </c>
       <c r="F10" s="22">
-        <v>4.2592592592592595E-3</v>
+        <v>1.3842592592592594E-2</v>
       </c>
       <c r="G10" s="22">
         <f t="shared" si="1"/>
-        <v>5.8912037037037041E-3</v>
+        <v>0</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2">
-        <v>9.8726851851851857E-3</v>
+        <v>8.0555555555555554E-3</v>
       </c>
       <c r="D11" s="15">
         <f t="shared" si="0"/>
-        <v>1.0810185185185187E-2</v>
+        <v>3.3148148148148149E-2</v>
       </c>
       <c r="E11" s="16">
-        <v>2.0682870370370372E-2</v>
+        <v>4.1203703703703708E-2</v>
       </c>
       <c r="F11" s="22">
-        <v>1.2199074074074072E-2</v>
+        <v>2.1435185185185186E-2</v>
       </c>
       <c r="G11" s="22">
         <f t="shared" si="1"/>
-        <v>8.4837962962963E-3</v>
+        <v>1.9768518518518522E-2</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2">
-        <v>5.3819444444444453E-3</v>
+        <v>7.3726851851851861E-3</v>
       </c>
       <c r="D12" s="15">
-        <f t="shared" si="0"/>
-        <v>1.128472222222222E-2</v>
+        <f>E12-C12</f>
+        <v>1.4004629629629631E-2</v>
       </c>
       <c r="E12" s="16">
-        <v>1.6666666666666666E-2</v>
+        <v>2.1377314814814818E-2</v>
       </c>
       <c r="F12" s="22">
-        <v>9.2013888888888892E-3</v>
+        <v>6.4004629629629628E-3</v>
       </c>
       <c r="G12" s="22">
         <f t="shared" si="1"/>
-        <v>7.4652777777777773E-3</v>
+        <v>1.4976851851851856E-2</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2">
-        <v>5.3240740740740748E-3</v>
+        <v>1.8692129629629631E-2</v>
       </c>
       <c r="D13" s="15">
         <f t="shared" si="0"/>
-        <v>6.2962962962962964E-3</v>
+        <v>1.1342592592592585E-3</v>
       </c>
       <c r="E13" s="16">
-        <v>1.1620370370370371E-2</v>
+        <v>1.982638888888889E-2</v>
       </c>
       <c r="F13" s="22">
-        <v>8.0902777777777778E-3</v>
+        <v>1.6851851851851851E-2</v>
       </c>
       <c r="G13" s="22">
         <f t="shared" si="1"/>
-        <v>3.5300925925925934E-3</v>
+        <v>2.9745370370370394E-3</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2">
-        <v>5.3240740740740748E-3</v>
+        <v>4.5069444444444447E-2</v>
       </c>
       <c r="D14" s="15">
         <f t="shared" si="0"/>
-        <v>1.5844907407407408E-2</v>
+        <v>2.0706018518518519E-2</v>
       </c>
       <c r="E14" s="16">
-        <v>2.1168981481481483E-2</v>
+        <v>6.5775462962962966E-2</v>
       </c>
       <c r="F14" s="22">
-        <v>1.6041666666666666E-2</v>
+        <v>1.8124999999999999E-2</v>
       </c>
       <c r="G14" s="22">
         <f t="shared" si="1"/>
-        <v>5.1273148148148172E-3</v>
+        <v>4.7650462962962964E-2</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2">
-        <v>1.503472222222222E-2</v>
+        <v>1.6446759259259262E-2</v>
       </c>
       <c r="D15" s="15">
         <f t="shared" si="0"/>
-        <v>9.3518518518518542E-3</v>
+        <v>2.5925925925925908E-3</v>
       </c>
       <c r="E15" s="16">
-        <v>2.4386574074074074E-2</v>
+        <v>1.9039351851851852E-2</v>
       </c>
       <c r="F15" s="22">
-        <v>1.5219907407407409E-2</v>
+        <v>9.9537037037037042E-3</v>
       </c>
       <c r="G15" s="22">
         <f t="shared" si="1"/>
-        <v>9.166666666666665E-3</v>
+        <v>9.0856481481481483E-3</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2">
-        <v>1.357638888888889E-2</v>
+        <v>1.1469907407407408E-2</v>
       </c>
       <c r="D16" s="15">
         <f t="shared" si="0"/>
-        <v>9.3865740740740767E-3</v>
+        <v>2.6851851851851849E-2</v>
       </c>
       <c r="E16" s="16">
-        <v>2.2962962962962966E-2</v>
+        <v>3.8321759259259257E-2</v>
       </c>
       <c r="F16" s="22">
-        <v>1.5520833333333333E-2</v>
+        <v>2.461805555555556E-2</v>
       </c>
       <c r="G16" s="22">
         <f t="shared" si="1"/>
-        <v>7.4421296296296336E-3</v>
+        <v>1.3703703703703697E-2</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2">
-        <v>7.083333333333333E-3</v>
+        <v>5.0810185185185186E-3</v>
       </c>
       <c r="D17" s="15">
         <f t="shared" si="0"/>
-        <v>2.8368055555555553E-2</v>
+        <v>3.4756944444444444E-2</v>
       </c>
       <c r="E17" s="16">
-        <v>3.5451388888888886E-2</v>
+        <v>3.9837962962962964E-2</v>
       </c>
       <c r="F17" s="22">
-        <v>2.3668981481481485E-2</v>
+        <v>1.9861111111111111E-2</v>
       </c>
       <c r="G17" s="22">
         <f t="shared" si="1"/>
-        <v>1.1782407407407401E-2</v>
+        <v>1.9976851851851853E-2</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2">
-        <v>1.2418981481481482E-2</v>
+        <v>6.1504629629629631E-2</v>
       </c>
       <c r="D18" s="15">
         <f t="shared" si="0"/>
-        <v>1.0636574074074073E-2</v>
+        <v>2.7002314814814812E-2</v>
       </c>
       <c r="E18" s="16">
-        <v>2.3055555555555555E-2</v>
+        <v>8.8506944444444444E-2</v>
       </c>
       <c r="F18" s="22">
-        <v>2.013888888888889E-2</v>
+        <v>4.8773148148148149E-2</v>
       </c>
       <c r="G18" s="22">
         <f t="shared" si="1"/>
-        <v>2.9166666666666646E-3</v>
+        <v>3.9733796296296295E-2</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2">
-        <v>1.1354166666666667E-2</v>
+        <v>8.3194444444444446E-2</v>
       </c>
       <c r="D19" s="15">
         <f t="shared" si="0"/>
-        <v>3.2638888888888891E-3</v>
+        <v>2.5706018518518517E-2</v>
       </c>
       <c r="E19" s="16">
-        <v>1.4618055555555556E-2</v>
+        <v>0.10890046296296296</v>
       </c>
       <c r="F19" s="22">
-        <v>9.5023148148148159E-3</v>
+        <v>4.5590277777777778E-2</v>
       </c>
       <c r="G19" s="22">
         <f t="shared" si="1"/>
-        <v>5.1157407407407401E-3</v>
+        <v>6.3310185185185192E-2</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C20" s="2">
-        <v>1.7951388888888888E-2</v>
+        <v>2.8854166666666667E-2</v>
       </c>
       <c r="D20" s="15">
         <f t="shared" si="0"/>
-        <v>1.3599537037037032E-2</v>
+        <v>6.1030092592592594E-2</v>
       </c>
       <c r="E20" s="16">
-        <v>3.155092592592592E-2</v>
+        <v>8.9884259259259261E-2</v>
       </c>
       <c r="F20" s="22">
-        <v>2.0370370370370369E-2</v>
+        <v>7.7199074074074073E-2</v>
       </c>
       <c r="G20" s="22">
         <f t="shared" si="1"/>
-        <v>1.1180555555555551E-2</v>
+        <v>1.2685185185185188E-2</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C21" s="2">
-        <v>4.0682870370370376E-2</v>
+        <v>1.1898148148148149E-2</v>
       </c>
       <c r="D21" s="15">
         <f t="shared" si="0"/>
-        <v>3.0787037037037016E-3</v>
+        <v>2.7094907407407401E-2</v>
       </c>
       <c r="E21" s="16">
-        <v>4.3761574074074078E-2</v>
+        <v>3.8993055555555552E-2</v>
       </c>
       <c r="F21" s="22">
-        <v>1.269675925925926E-2</v>
+        <v>3.5277777777777776E-2</v>
       </c>
       <c r="G21" s="22">
         <f t="shared" si="1"/>
-        <v>3.1064814814814816E-2</v>
+        <v>3.7152777777777757E-3</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C22" s="2">
-        <v>9.7337962962962977E-3</v>
+        <v>0.12148148148148148</v>
       </c>
       <c r="D22" s="15">
         <f t="shared" si="0"/>
-        <v>9.6296296296296286E-3</v>
+        <v>7.1504629629629626E-2</v>
       </c>
       <c r="E22" s="16">
-        <v>1.9363425925925926E-2</v>
+        <v>0.19298611111111111</v>
       </c>
       <c r="F22" s="22">
-        <v>1.4247685185185184E-2</v>
+        <v>0.1706134259259259</v>
       </c>
       <c r="G22" s="22">
         <f t="shared" si="1"/>
-        <v>5.1157407407407419E-3</v>
+        <v>2.2372685185185204E-2</v>
       </c>
       <c r="H22" s="16" t="s">
         <v>7</v>
@@ -1439,159 +2299,159 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2">
-        <v>2.1886574074074072E-2</v>
+        <v>6.238425925925925E-3</v>
       </c>
       <c r="D23" s="15">
         <f t="shared" si="0"/>
-        <v>3.1817129629629626E-2</v>
+        <v>2.7118055555555555E-2</v>
       </c>
       <c r="E23" s="16">
-        <v>5.3703703703703698E-2</v>
+        <v>3.335648148148148E-2</v>
       </c>
       <c r="F23" s="22">
-        <v>3.9039351851851853E-2</v>
+        <v>3.006944444444444E-2</v>
       </c>
       <c r="G23" s="22">
         <f t="shared" si="1"/>
-        <v>1.4664351851851845E-2</v>
+        <v>3.2870370370370397E-3</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C24" s="2">
-        <v>8.9409722222222224E-2</v>
+        <v>2.7696759259259258E-2</v>
       </c>
       <c r="D24" s="15">
         <f t="shared" si="0"/>
-        <v>3.0474537037037036E-2</v>
+        <v>2.8935185185185185E-2</v>
       </c>
       <c r="E24" s="16">
-        <v>0.11988425925925926</v>
+        <v>5.6631944444444443E-2</v>
       </c>
       <c r="F24" s="22">
-        <v>8.2997685185185188E-2</v>
+        <v>4.3356481481481475E-2</v>
       </c>
       <c r="G24" s="22">
         <f t="shared" si="1"/>
-        <v>3.6886574074074072E-2</v>
+        <v>1.3275462962962968E-2</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C25" s="2">
-        <v>2.6516203703703698E-2</v>
+        <v>2.6770833333333331E-2</v>
       </c>
       <c r="D25" s="15">
         <f t="shared" si="0"/>
-        <v>7.1412037037037086E-3</v>
+        <v>9.9537037037037042E-3</v>
       </c>
       <c r="E25" s="16">
-        <v>3.3657407407407407E-2</v>
+        <v>3.6724537037037035E-2</v>
       </c>
       <c r="F25" s="22">
-        <v>1.298611111111111E-2</v>
+        <v>1.9814814814814816E-2</v>
       </c>
       <c r="G25" s="22">
         <f t="shared" si="1"/>
-        <v>2.0671296296296299E-2</v>
+        <v>1.6909722222222218E-2</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C26" s="2">
-        <v>8.6689814814814806E-3</v>
+        <v>2.2685185185185183E-2</v>
       </c>
       <c r="D26" s="15">
-        <f t="shared" ref="D26" si="2">E26-C26</f>
-        <v>1.5821759259259258E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.12690972222222224</v>
       </c>
       <c r="E26" s="16">
-        <v>2.449074074074074E-2</v>
+        <v>0.14959490740740741</v>
       </c>
       <c r="F26" s="22">
-        <v>1.9456018518518518E-2</v>
+        <v>0.1292939814814815</v>
       </c>
       <c r="G26" s="22">
-        <f t="shared" ref="G26" si="3">E26-F26</f>
-        <v>5.0347222222222217E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.0300925925925917E-2</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C27" s="2">
-        <v>1.4745370370370372E-2</v>
+        <v>2.9062500000000002E-2</v>
       </c>
       <c r="D27" s="15">
         <f t="shared" si="0"/>
-        <v>2.7187500000000003E-2</v>
+        <v>9.0972222222222253E-3</v>
       </c>
       <c r="E27" s="16">
-        <v>4.1932870370370377E-2</v>
+        <v>3.8159722222222227E-2</v>
       </c>
       <c r="F27" s="22">
-        <v>4.1932870370370377E-2</v>
+        <v>2.2534722222222223E-2</v>
       </c>
       <c r="G27" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5625000000000003E-2</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C28" s="2">
-        <v>1.4201388888888888E-2</v>
+        <v>1.4756944444444446E-2</v>
       </c>
       <c r="D28" s="15">
         <f t="shared" si="0"/>
-        <v>9.7800925925925902E-3</v>
+        <v>4.1423611111111112E-2</v>
       </c>
       <c r="E28" s="16">
-        <v>2.3981481481481479E-2</v>
+        <v>5.618055555555556E-2</v>
       </c>
       <c r="F28" s="22">
-        <v>2.3981481481481479E-2</v>
+        <v>2.4641203703703703E-2</v>
       </c>
       <c r="G28" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.153935185185186E-2</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>21</v>
@@ -1601,27 +2461,27 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="C29" s="2">
-        <v>1.3530092592592594E-2</v>
+        <v>2.2372685185185186E-2</v>
       </c>
       <c r="D29" s="15">
         <f t="shared" si="0"/>
-        <v>3.4722222222222446E-5</v>
+        <v>4.6296296296294281E-5</v>
       </c>
       <c r="E29" s="16">
-        <v>1.3564814814814816E-2</v>
+        <v>2.2418981481481481E-2</v>
       </c>
       <c r="F29" s="22">
-        <v>9.3402777777777772E-3</v>
+        <v>1.050925925925926E-2</v>
       </c>
       <c r="G29" s="22">
         <f t="shared" si="1"/>
-        <v>4.2245370370370388E-3</v>
+        <v>1.1909722222222221E-2</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I29" s="4"/>
     </row>
@@ -1729,12 +2589,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,7 +2603,6 @@
     <col min="2" max="2" width="42.5703125" customWidth="1"/>
     <col min="3" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="6.85546875" customWidth="1"/>
-    <col min="10" max="18" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1815,867 +2674,6 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.6435185185185183E-3</v>
-      </c>
-      <c r="D5" s="15">
-        <f t="shared" ref="D5:D29" si="0">E5-C5</f>
-        <v>1.921296296296297E-3</v>
-      </c>
-      <c r="E5" s="16">
-        <v>3.5648148148148154E-3</v>
-      </c>
-      <c r="F5" s="21">
-        <v>2.7546296296296294E-3</v>
-      </c>
-      <c r="G5" s="21">
-        <f t="shared" ref="G5:G29" si="1">E5-F5</f>
-        <v>8.1018518518518592E-4</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="2">
-        <v>6.782407407407408E-3</v>
-      </c>
-      <c r="D6" s="15">
-        <f t="shared" si="0"/>
-        <v>5.8449074074074072E-3</v>
-      </c>
-      <c r="E6" s="16">
-        <v>1.2627314814814815E-2</v>
-      </c>
-      <c r="F6" s="21">
-        <v>9.4444444444444445E-3</v>
-      </c>
-      <c r="G6" s="21">
-        <f t="shared" si="1"/>
-        <v>3.1828703703703706E-3</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.5381944444444443E-2</v>
-      </c>
-      <c r="D7" s="15">
-        <f t="shared" si="0"/>
-        <v>4.9189814814814842E-3</v>
-      </c>
-      <c r="E7" s="16">
-        <v>2.0300925925925927E-2</v>
-      </c>
-      <c r="F7" s="22">
-        <v>1.0902777777777777E-2</v>
-      </c>
-      <c r="G7" s="21">
-        <f t="shared" si="1"/>
-        <v>9.3981481481481503E-3</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3.37962962962963E-3</v>
-      </c>
-      <c r="D8" s="15">
-        <f t="shared" si="0"/>
-        <v>1.9074074074074077E-2</v>
-      </c>
-      <c r="E8" s="16">
-        <v>2.2453703703703708E-2</v>
-      </c>
-      <c r="F8" s="22">
-        <v>5.0462962962962961E-3</v>
-      </c>
-      <c r="G8" s="21">
-        <f t="shared" si="1"/>
-        <v>1.7407407407407413E-2</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.9201388888888889E-2</v>
-      </c>
-      <c r="D9" s="15">
-        <f t="shared" si="0"/>
-        <v>9.826388888888888E-3</v>
-      </c>
-      <c r="E9" s="16">
-        <v>2.9027777777777777E-2</v>
-      </c>
-      <c r="F9" s="22">
-        <v>1.2395833333333335E-2</v>
-      </c>
-      <c r="G9" s="22">
-        <f t="shared" si="1"/>
-        <v>1.6631944444444442E-2</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="2">
-        <v>6.7245370370370367E-3</v>
-      </c>
-      <c r="D10" s="15">
-        <f t="shared" si="0"/>
-        <v>7.1180555555555572E-3</v>
-      </c>
-      <c r="E10" s="16">
-        <v>1.3842592592592594E-2</v>
-      </c>
-      <c r="F10" s="22">
-        <v>1.3842592592592594E-2</v>
-      </c>
-      <c r="G10" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="2">
-        <v>8.0555555555555554E-3</v>
-      </c>
-      <c r="D11" s="15">
-        <f t="shared" si="0"/>
-        <v>3.3148148148148149E-2</v>
-      </c>
-      <c r="E11" s="16">
-        <v>4.1203703703703708E-2</v>
-      </c>
-      <c r="F11" s="22">
-        <v>2.1435185185185186E-2</v>
-      </c>
-      <c r="G11" s="22">
-        <f t="shared" si="1"/>
-        <v>1.9768518518518522E-2</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="2">
-        <v>7.3726851851851861E-3</v>
-      </c>
-      <c r="D12" s="15">
-        <f>E12-C12</f>
-        <v>1.4004629629629631E-2</v>
-      </c>
-      <c r="E12" s="16">
-        <v>2.1377314814814818E-2</v>
-      </c>
-      <c r="F12" s="22">
-        <v>6.4004629629629628E-3</v>
-      </c>
-      <c r="G12" s="22">
-        <f t="shared" si="1"/>
-        <v>1.4976851851851856E-2</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1.8692129629629631E-2</v>
-      </c>
-      <c r="D13" s="15">
-        <f t="shared" si="0"/>
-        <v>1.1342592592592585E-3</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1.982638888888889E-2</v>
-      </c>
-      <c r="F13" s="22">
-        <v>1.6851851851851851E-2</v>
-      </c>
-      <c r="G13" s="22">
-        <f t="shared" si="1"/>
-        <v>2.9745370370370394E-3</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4.5069444444444447E-2</v>
-      </c>
-      <c r="D14" s="15">
-        <f t="shared" si="0"/>
-        <v>2.0706018518518519E-2</v>
-      </c>
-      <c r="E14" s="16">
-        <v>6.5775462962962966E-2</v>
-      </c>
-      <c r="F14" s="22">
-        <v>1.8124999999999999E-2</v>
-      </c>
-      <c r="G14" s="22">
-        <f t="shared" si="1"/>
-        <v>4.7650462962962964E-2</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1.6446759259259262E-2</v>
-      </c>
-      <c r="D15" s="15">
-        <f t="shared" si="0"/>
-        <v>2.5925925925925908E-3</v>
-      </c>
-      <c r="E15" s="16">
-        <v>1.9039351851851852E-2</v>
-      </c>
-      <c r="F15" s="22">
-        <v>9.9537037037037042E-3</v>
-      </c>
-      <c r="G15" s="22">
-        <f t="shared" si="1"/>
-        <v>9.0856481481481483E-3</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1.1469907407407408E-2</v>
-      </c>
-      <c r="D16" s="15">
-        <f t="shared" si="0"/>
-        <v>2.6851851851851849E-2</v>
-      </c>
-      <c r="E16" s="16">
-        <v>3.8321759259259257E-2</v>
-      </c>
-      <c r="F16" s="22">
-        <v>2.461805555555556E-2</v>
-      </c>
-      <c r="G16" s="22">
-        <f t="shared" si="1"/>
-        <v>1.3703703703703697E-2</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="2">
-        <v>5.0810185185185186E-3</v>
-      </c>
-      <c r="D17" s="15">
-        <f t="shared" si="0"/>
-        <v>3.4756944444444444E-2</v>
-      </c>
-      <c r="E17" s="16">
-        <v>3.9837962962962964E-2</v>
-      </c>
-      <c r="F17" s="22">
-        <v>1.9861111111111111E-2</v>
-      </c>
-      <c r="G17" s="22">
-        <f t="shared" si="1"/>
-        <v>1.9976851851851853E-2</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="2">
-        <v>6.1504629629629631E-2</v>
-      </c>
-      <c r="D18" s="15">
-        <f t="shared" si="0"/>
-        <v>2.7002314814814812E-2</v>
-      </c>
-      <c r="E18" s="16">
-        <v>8.8506944444444444E-2</v>
-      </c>
-      <c r="F18" s="22">
-        <v>4.8773148148148149E-2</v>
-      </c>
-      <c r="G18" s="22">
-        <f t="shared" si="1"/>
-        <v>3.9733796296296295E-2</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="2">
-        <v>8.3194444444444446E-2</v>
-      </c>
-      <c r="D19" s="15">
-        <f t="shared" si="0"/>
-        <v>2.5706018518518517E-2</v>
-      </c>
-      <c r="E19" s="16">
-        <v>0.10890046296296296</v>
-      </c>
-      <c r="F19" s="22">
-        <v>4.5590277777777778E-2</v>
-      </c>
-      <c r="G19" s="22">
-        <f t="shared" si="1"/>
-        <v>6.3310185185185192E-2</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2.8854166666666667E-2</v>
-      </c>
-      <c r="D20" s="15">
-        <f t="shared" si="0"/>
-        <v>6.1030092592592594E-2</v>
-      </c>
-      <c r="E20" s="16">
-        <v>8.9884259259259261E-2</v>
-      </c>
-      <c r="F20" s="22">
-        <v>7.7199074074074073E-2</v>
-      </c>
-      <c r="G20" s="22">
-        <f t="shared" si="1"/>
-        <v>1.2685185185185188E-2</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1.1898148148148149E-2</v>
-      </c>
-      <c r="D21" s="15">
-        <f t="shared" si="0"/>
-        <v>2.7094907407407401E-2</v>
-      </c>
-      <c r="E21" s="16">
-        <v>3.8993055555555552E-2</v>
-      </c>
-      <c r="F21" s="22">
-        <v>3.5277777777777776E-2</v>
-      </c>
-      <c r="G21" s="22">
-        <f t="shared" si="1"/>
-        <v>3.7152777777777757E-3</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.12148148148148148</v>
-      </c>
-      <c r="D22" s="15">
-        <f t="shared" si="0"/>
-        <v>7.1504629629629626E-2</v>
-      </c>
-      <c r="E22" s="16">
-        <v>0.19298611111111111</v>
-      </c>
-      <c r="F22" s="22">
-        <v>0.1706134259259259</v>
-      </c>
-      <c r="G22" s="22">
-        <f t="shared" si="1"/>
-        <v>2.2372685185185204E-2</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="2">
-        <v>6.238425925925925E-3</v>
-      </c>
-      <c r="D23" s="15">
-        <f t="shared" si="0"/>
-        <v>2.7118055555555555E-2</v>
-      </c>
-      <c r="E23" s="16">
-        <v>3.335648148148148E-2</v>
-      </c>
-      <c r="F23" s="22">
-        <v>3.006944444444444E-2</v>
-      </c>
-      <c r="G23" s="22">
-        <f t="shared" si="1"/>
-        <v>3.2870370370370397E-3</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2.7696759259259258E-2</v>
-      </c>
-      <c r="D24" s="15">
-        <f t="shared" si="0"/>
-        <v>2.8935185185185185E-2</v>
-      </c>
-      <c r="E24" s="16">
-        <v>5.6631944444444443E-2</v>
-      </c>
-      <c r="F24" s="22">
-        <v>4.3356481481481475E-2</v>
-      </c>
-      <c r="G24" s="22">
-        <f t="shared" si="1"/>
-        <v>1.3275462962962968E-2</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="2">
-        <v>2.6770833333333331E-2</v>
-      </c>
-      <c r="D25" s="15">
-        <f t="shared" si="0"/>
-        <v>9.9537037037037042E-3</v>
-      </c>
-      <c r="E25" s="16">
-        <v>3.6724537037037035E-2</v>
-      </c>
-      <c r="F25" s="22">
-        <v>1.9814814814814816E-2</v>
-      </c>
-      <c r="G25" s="22">
-        <f t="shared" si="1"/>
-        <v>1.6909722222222218E-2</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="2">
-        <v>2.2685185185185183E-2</v>
-      </c>
-      <c r="D26" s="15">
-        <f t="shared" si="0"/>
-        <v>0.12690972222222224</v>
-      </c>
-      <c r="E26" s="16">
-        <v>0.14959490740740741</v>
-      </c>
-      <c r="F26" s="22">
-        <v>0.1292939814814815</v>
-      </c>
-      <c r="G26" s="22">
-        <f t="shared" si="1"/>
-        <v>2.0300925925925917E-2</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="2">
-        <v>2.9062500000000002E-2</v>
-      </c>
-      <c r="D27" s="15">
-        <f t="shared" si="0"/>
-        <v>9.0972222222222253E-3</v>
-      </c>
-      <c r="E27" s="16">
-        <v>3.8159722222222227E-2</v>
-      </c>
-      <c r="F27" s="22">
-        <v>2.2534722222222223E-2</v>
-      </c>
-      <c r="G27" s="22">
-        <f t="shared" si="1"/>
-        <v>1.5625000000000003E-2</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1.4756944444444446E-2</v>
-      </c>
-      <c r="D28" s="15">
-        <f t="shared" si="0"/>
-        <v>4.1423611111111112E-2</v>
-      </c>
-      <c r="E28" s="16">
-        <v>5.618055555555556E-2</v>
-      </c>
-      <c r="F28" s="22">
-        <v>2.4641203703703703E-2</v>
-      </c>
-      <c r="G28" s="22">
-        <f t="shared" si="1"/>
-        <v>3.153935185185186E-2</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2.2372685185185186E-2</v>
-      </c>
-      <c r="D29" s="15">
-        <f t="shared" si="0"/>
-        <v>4.6296296296294281E-5</v>
-      </c>
-      <c r="E29" s="16">
-        <v>2.2418981481481481E-2</v>
-      </c>
-      <c r="F29" s="22">
-        <v>1.050925925925926E-2</v>
-      </c>
-      <c r="G29" s="22">
-        <f t="shared" si="1"/>
-        <v>1.1909722222222221E-2</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D32" s="24"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E36" s="25"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E37" s="25"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E38" s="25"/>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E39" s="25"/>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E40" s="25"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E41" s="25"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="25"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="26"/>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="25"/>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I52" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1"/>
-    <col min="3" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
